--- a/me-docs/infra/1.deploy-centos7/1.deploy-centos7.xlsx
+++ b/me-docs/infra/1.deploy-centos7/1.deploy-centos7.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\infra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\infra\1.deploy-centos7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6631D0DC-3E84-4B52-A2CF-6FEB272EA481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1B03FD-E6D1-4A78-9BC7-1B74F69E1A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="165">
   <si>
     <t>Check laravel-sg Security Group</t>
   </si>
@@ -538,12 +538,15 @@
   <si>
     <t>Check database</t>
   </si>
+  <si>
+    <t>yum install php php-cli php-common php-devel php-gd php-mbstring php-mysqlnd php-pecl-mysql php-pdo php-xml php-pecl-memcache --enablerepo=remi-php73</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,26 +577,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -615,13 +605,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6050,7 +6039,7 @@
   <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6079,7 +6068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66DB6B2-3E77-4B8E-8CDF-07CF6B625EEB}">
   <dimension ref="A265:B297"/>
   <sheetViews>
-    <sheetView topLeftCell="A376" workbookViewId="0">
+    <sheetView topLeftCell="A379" workbookViewId="0">
       <selection activeCell="Q372" sqref="Q372"/>
     </sheetView>
   </sheetViews>
@@ -6105,8 +6094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C670A1A1-B43A-4D46-8B9F-225D4D345724}">
   <dimension ref="A2:B118"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6196,8 +6185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248F8605-EB68-42FD-BE87-727E21AA97A1}">
   <dimension ref="A2:B538"/>
   <sheetViews>
-    <sheetView topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="Q547" sqref="Q547"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6448,8 +6437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F26E51-0505-43C8-92D5-5F9DFFFEDF4A}">
   <dimension ref="A2:B230"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="E278" sqref="E278"/>
+    <sheetView topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="A230" sqref="A230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6530,9 +6519,8 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="4"/>
       <c r="B152" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
@@ -6570,8 +6558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C43E37-91AA-455A-8EDD-B602226FEF00}">
   <dimension ref="A2:K125"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="N125" sqref="N125"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="N76" sqref="N76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6652,527 +6640,527 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5" t="s">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5" t="s">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5" t="s">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5" t="s">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5" t="s">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5" t="s">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5" t="s">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5" t="s">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5"/>
-      <c r="K115" s="5"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
-      <c r="K117" s="5"/>
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
-      <c r="K118" s="5"/>
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
-      <c r="J122" s="5"/>
-      <c r="K122" s="5"/>
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5"/>
-      <c r="K123" s="5"/>
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
-      <c r="J124" s="5"/>
-      <c r="K124" s="5"/>
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5"/>
-      <c r="J125" s="5"/>
-      <c r="K125" s="5"/>
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7184,8 +7172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790F5A93-30C8-439F-A15B-5666F141AF66}">
   <dimension ref="A2:B75"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7255,8 +7243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0925CB36-13E2-4F5C-A37D-CD8F58A430A4}">
   <dimension ref="A2:P104"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="P108" sqref="P108"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="N122" sqref="N122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7353,8 +7341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BB96D7-5C00-4FC1-A6E1-6BAC4EA56DD5}">
   <dimension ref="A2:B445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="J545" sqref="J545"/>
+    <sheetView tabSelected="1" topLeftCell="A520" workbookViewId="0">
+      <selection activeCell="A420" sqref="A420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/me-docs/infra/1.deploy-centos7/1.deploy-centos7.xlsx
+++ b/me-docs/infra/1.deploy-centos7/1.deploy-centos7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\infra\1.deploy-centos7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1B03FD-E6D1-4A78-9BC7-1B74F69E1A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47774B99-59B9-4C23-B873-87E93DB6D92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="181">
   <si>
     <t>Check laravel-sg Security Group</t>
   </si>
@@ -506,9 +506,6 @@
     <t>sudo yum install --enablerepo=remi-php73 php-zip</t>
   </si>
   <si>
-    <t xml:space="preserve">useradd -g 333 -u 333 -s /bin/bash news </t>
-  </si>
-  <si>
     <t>php artisan migrate</t>
   </si>
   <si>
@@ -540,13 +537,64 @@
   </si>
   <si>
     <t>yum install php php-cli php-common php-devel php-gd php-mbstring php-mysqlnd php-pecl-mysql php-pdo php-xml php-pecl-memcache --enablerepo=remi-php73</t>
+  </si>
+  <si>
+    <t>systemctl enable mysqld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">useradd -d /var/www/news -m -g 333 -u 333 -s /bin/bash news </t>
+  </si>
+  <si>
+    <t>su - news</t>
+  </si>
+  <si>
+    <t>vi ~/.bashrc</t>
+  </si>
+  <si>
+    <t># .bashrc</t>
+  </si>
+  <si>
+    <t># Source global definitions</t>
+  </si>
+  <si>
+    <t>if [ -f /etc/bashrc ]; then</t>
+  </si>
+  <si>
+    <t>. /etc/bashrc</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t># Uncomment the following line if you don't like systemctl's auto-paging feature:</t>
+  </si>
+  <si>
+    <t># export SYSTEMD_PAGER=</t>
+  </si>
+  <si>
+    <t># User specific aliases and functions</t>
+  </si>
+  <si>
+    <t>vi ~/.profile</t>
+  </si>
+  <si>
+    <t>if [ -s ~/.bashrc ]; then</t>
+  </si>
+  <si>
+    <t>source ~/.bashrc;</t>
+  </si>
+  <si>
+    <t>## hostname không hiển thị thì thực hiện như sau</t>
+  </si>
+  <si>
+    <t>. ~/.profile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,6 +625,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -592,7 +645,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -600,17 +653,124 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2273,13 +2433,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>277</xdr:row>
+      <xdr:row>278</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>282</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>76573</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2317,13 +2477,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>285</xdr:row>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>208381</xdr:colOff>
-      <xdr:row>312</xdr:row>
+      <xdr:row>313</xdr:row>
       <xdr:rowOff>104119</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2361,13 +2521,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>313</xdr:row>
+      <xdr:row>314</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>199009</xdr:colOff>
-      <xdr:row>343</xdr:row>
+      <xdr:row>344</xdr:row>
       <xdr:rowOff>104048</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2405,13 +2565,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>349</xdr:row>
+      <xdr:row>350</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>570209</xdr:colOff>
-      <xdr:row>383</xdr:row>
+      <xdr:row>384</xdr:row>
       <xdr:rowOff>18238</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2449,13 +2609,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>386</xdr:row>
+      <xdr:row>387</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>551848</xdr:colOff>
-      <xdr:row>391</xdr:row>
+      <xdr:row>392</xdr:row>
       <xdr:rowOff>57024</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2493,13 +2653,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>393</xdr:row>
+      <xdr:row>394</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>503619</xdr:colOff>
-      <xdr:row>411</xdr:row>
+      <xdr:row>412</xdr:row>
       <xdr:rowOff>75762</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2537,13 +2697,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>415</xdr:row>
+      <xdr:row>416</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>189562</xdr:colOff>
-      <xdr:row>432</xdr:row>
+      <xdr:row>433</xdr:row>
       <xdr:rowOff>85309</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2581,13 +2741,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>436</xdr:row>
+      <xdr:row>437</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9219</xdr:colOff>
-      <xdr:row>450</xdr:row>
+      <xdr:row>451</xdr:row>
       <xdr:rowOff>104429</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2625,13 +2785,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>453</xdr:row>
+      <xdr:row>454</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>409143</xdr:colOff>
-      <xdr:row>471</xdr:row>
+      <xdr:row>472</xdr:row>
       <xdr:rowOff>151952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2669,13 +2829,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>475</xdr:row>
+      <xdr:row>476</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>180190</xdr:colOff>
-      <xdr:row>493</xdr:row>
+      <xdr:row>494</xdr:row>
       <xdr:rowOff>75762</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2713,13 +2873,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>497</xdr:row>
+      <xdr:row>498</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>313448</xdr:colOff>
-      <xdr:row>506</xdr:row>
+      <xdr:row>507</xdr:row>
       <xdr:rowOff>104548</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2757,13 +2917,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>510</xdr:row>
+      <xdr:row>511</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>399086</xdr:colOff>
-      <xdr:row>536</xdr:row>
+      <xdr:row>537</xdr:row>
       <xdr:rowOff>18429</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2801,13 +2961,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>538</xdr:row>
+      <xdr:row>539</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>160990</xdr:colOff>
-      <xdr:row>562</xdr:row>
+      <xdr:row>563</xdr:row>
       <xdr:rowOff>151809</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2845,13 +3005,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>564</xdr:row>
+      <xdr:row>565</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>160990</xdr:colOff>
-      <xdr:row>588</xdr:row>
+      <xdr:row>589</xdr:row>
       <xdr:rowOff>104190</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2889,13 +3049,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>590</xdr:row>
+      <xdr:row>591</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>160990</xdr:colOff>
-      <xdr:row>614</xdr:row>
+      <xdr:row>615</xdr:row>
       <xdr:rowOff>94667</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2933,13 +3093,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>616</xdr:row>
+      <xdr:row>617</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>84724</xdr:colOff>
-      <xdr:row>629</xdr:row>
+      <xdr:row>630</xdr:row>
       <xdr:rowOff>152071</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4361,13 +4521,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>65828</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>94548</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4405,13 +4565,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>237409</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>180738</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4449,57 +4609,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>265905</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>171333</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9518ECDC-9454-866A-3C81-E4D430621F74}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="10096500"/>
-          <a:ext cx="6361905" cy="933333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>456533</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>171238</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4516,7 +4632,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4525,6 +4641,226 @@
         <a:xfrm>
           <a:off x="609600" y="17716500"/>
           <a:ext cx="5333333" cy="1695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>199009</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>161762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E25794F-D546-9684-0626-123ABF8A0054}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10096500"/>
+          <a:ext cx="8123809" cy="1304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161295</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>76048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A789726-A0BA-63BC-D172-10D9E465551C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="22479000"/>
+          <a:ext cx="5038095" cy="1219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>484800</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>85405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B63048-4D16-C591-35EC-FDD56BC1BCFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="26670000"/>
+          <a:ext cx="7800000" cy="2561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390171</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>190357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE549E5-98C8-9EEB-0D19-C04CD76AC6FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="30480000"/>
+          <a:ext cx="2828571" cy="1142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>399695</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>142810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6841AE85-F783-CCBC-F475-2E439A6DB035}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="32004000"/>
+          <a:ext cx="2838095" cy="523810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4674,13 +5010,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>323505</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>161524</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4938,13 +5274,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>570819</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>142643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4982,13 +5318,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>380343</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>9381</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5026,13 +5362,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>418362</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>123119</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5070,13 +5406,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>561295</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>114119</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5114,13 +5450,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>581193</xdr:colOff>
-      <xdr:row>272</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5158,13 +5494,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>274</xdr:row>
+      <xdr:row>275</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>103695</xdr:colOff>
-      <xdr:row>281</xdr:row>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>18881</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5202,13 +5538,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>282</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>417905</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>302</xdr:row>
       <xdr:rowOff>104309</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5246,13 +5582,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>304</xdr:row>
+      <xdr:row>305</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>427809</xdr:colOff>
-      <xdr:row>329</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>151786</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5290,13 +5626,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>332</xdr:row>
+      <xdr:row>333</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>27886</xdr:colOff>
-      <xdr:row>344</xdr:row>
+      <xdr:row>345</xdr:row>
       <xdr:rowOff>85429</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5334,13 +5670,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>347</xdr:row>
+      <xdr:row>348</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>170514</xdr:colOff>
-      <xdr:row>359</xdr:row>
+      <xdr:row>360</xdr:row>
       <xdr:rowOff>75905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5378,13 +5714,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>361</xdr:row>
+      <xdr:row>362</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>275276</xdr:colOff>
-      <xdr:row>373</xdr:row>
+      <xdr:row>374</xdr:row>
       <xdr:rowOff>142571</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5422,13 +5758,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>376</xdr:row>
+      <xdr:row>377</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>570667</xdr:colOff>
-      <xdr:row>388</xdr:row>
+      <xdr:row>389</xdr:row>
       <xdr:rowOff>171143</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5466,13 +5802,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>391</xdr:row>
+      <xdr:row>392</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>113371</xdr:colOff>
-      <xdr:row>403</xdr:row>
+      <xdr:row>404</xdr:row>
       <xdr:rowOff>142571</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5510,13 +5846,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>406</xdr:row>
+      <xdr:row>407</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>484876</xdr:colOff>
-      <xdr:row>418</xdr:row>
+      <xdr:row>419</xdr:row>
       <xdr:rowOff>94952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5598,13 +5934,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>445</xdr:row>
+      <xdr:row>446</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>455848</xdr:colOff>
-      <xdr:row>474</xdr:row>
+      <xdr:row>475</xdr:row>
       <xdr:rowOff>161214</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5642,13 +5978,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>476</xdr:row>
+      <xdr:row>477</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>505</xdr:row>
+      <xdr:row>506</xdr:row>
       <xdr:rowOff>49544</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5686,13 +6022,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>506</xdr:row>
+      <xdr:row>507</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>536</xdr:row>
+      <xdr:row>537</xdr:row>
       <xdr:rowOff>179395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5730,13 +6066,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>420</xdr:row>
+      <xdr:row>421</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>442</xdr:row>
+      <xdr:row>443</xdr:row>
       <xdr:rowOff>137251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6039,7 +6375,7 @@
   <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6068,7 +6404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66DB6B2-3E77-4B8E-8CDF-07CF6B625EEB}">
   <dimension ref="A265:B297"/>
   <sheetViews>
-    <sheetView topLeftCell="A379" workbookViewId="0">
+    <sheetView topLeftCell="A364" workbookViewId="0">
       <selection activeCell="Q372" sqref="Q372"/>
     </sheetView>
   </sheetViews>
@@ -6094,8 +6430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C670A1A1-B43A-4D46-8B9F-225D4D345724}">
   <dimension ref="A2:B118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6183,10 +6519,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248F8605-EB68-42FD-BE87-727E21AA97A1}">
-  <dimension ref="A2:B538"/>
+  <dimension ref="A2:B539"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A607" workbookViewId="0">
+      <selection activeCell="P508" sqref="P508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6306,123 +6642,128 @@
         <v>42</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B276" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B285" t="s">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B347" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B350" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B386" t="s">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B387" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B415" t="s">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B416" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B436" t="s">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B437" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B453" t="s">
+    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B454" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B475" t="s">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B476" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B496" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B497" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B498" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A509" t="s">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B510" t="s">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B511" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" t="s">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
         <v>64</v>
       </c>
     </row>
@@ -6437,8 +6778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F26E51-0505-43C8-92D5-5F9DFFFEDF4A}">
   <dimension ref="A2:B230"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="A230" sqref="A230"/>
+    <sheetView topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="A233" sqref="A233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6520,7 +6861,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
@@ -6558,8 +6899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C43E37-91AA-455A-8EDD-B602226FEF00}">
   <dimension ref="A2:K125"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="N76" sqref="N76"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7172,8 +7513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790F5A93-30C8-439F-A15B-5666F141AF66}">
   <dimension ref="A2:B75"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7241,10 +7582,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0925CB36-13E2-4F5C-A37D-CD8F58A430A4}">
-  <dimension ref="A2:P104"/>
+  <dimension ref="A2:P168"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="N122" sqref="N122"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="J172" sqref="J172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7282,7 +7623,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="P53" t="s">
         <v>115</v>
@@ -7308,27 +7649,228 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K98" s="2"/>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K100" s="2"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B129" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="8"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" s="9"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="10"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="10"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="10"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="10"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="10"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135" s="9"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="10"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B136" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="10"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B137" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="10"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B138" s="9"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="10"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="13"/>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C157" s="7"/>
+      <c r="D157" s="8"/>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B158" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="10"/>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C159" s="12"/>
+      <c r="D159" s="13"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -7339,10 +7881,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BB96D7-5C00-4FC1-A6E1-6BAC4EA56DD5}">
-  <dimension ref="A2:B445"/>
+  <dimension ref="A2:B446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A520" workbookViewId="0">
-      <selection activeCell="A420" sqref="A420"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7432,118 +7974,123 @@
         <v>136</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="3" t="s">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169" s="3" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="3" t="s">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B210" s="3" t="s">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="3" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B231" s="3" t="s">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" s="3" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B232" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B244" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B274" t="s">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B304" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B303" s="3" t="s">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B333" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B304" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B332" t="s">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B347" t="s">
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B362" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B361" t="s">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B377" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B376" t="s">
+    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B392" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B391" t="s">
+    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B407" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B406" t="s">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
         <v>19</v>
       </c>
     </row>
